--- a/DateBase/orders/Dang Nguyen_2024-11-17.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-17.xlsx
@@ -610,6 +610,9 @@
       <c r="C21" t="str">
         <v>315_尤加利叶圆叶_Eucalyptus Populus_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -671,7 +674,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>051510104015121012015441733862250120</v>
+        <v>051510104015121012015441733862250123</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-17.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-17.xlsx
@@ -611,7 +611,7 @@
         <v>315_尤加利叶圆叶_Eucalyptus Populus_undefined_1bunch</v>
       </c>
       <c r="F21" t="str">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -674,7 +674,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>051510104015121012015441733862250123</v>
+        <v>0515101040151210120154417338622501230</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-17.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-17.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -614,9 +614,179 @@
         <v>30</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>5</v>
+      </c>
+      <c r="C22" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>606_康乃馨橙光_orange_undefined_20stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>84_堪培拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F27" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>75_爱心_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F28" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" xml:space="preserve">
+      <c r="C29" t="str" xml:space="preserve">
+        <v xml:space="preserve">448_吊米 绿_hanging amaranthus
+green_undefined_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>6</v>
+      </c>
+      <c r="C30" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F30" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F31" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>234_白泡泡_White Bubbles_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F32" t="str">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>7</v>
+      </c>
+      <c r="C33" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F33" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>208_紫霞仙子 _Nightingale_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F34" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>234_白泡泡_White Bubbles_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F35" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>48_香格里拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F36" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>75_爱心_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F37" t="str">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>8</v>
+      </c>
+      <c r="C38" t="str">
+        <v>352_贝壳叶_molucela_Moluccella laevis Pall._1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>645_蛇目菊_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F39" t="str">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>355_春雨叶_Philodendron Xanadu_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -674,7 +844,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0515101040151210120154417338622501230</v>
+        <v>0515101040151210120154417338622501230201081316121215401038254052018822150</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-17.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-17.xlsx
@@ -783,6 +783,9 @@
       <c r="A41" t="str">
         <v>9</v>
       </c>
+      <c r="C41" t="str">
+        <v>671_大丽花 黄_undefined_undefined_5stems</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen_2024-11-17.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-17.xlsx
@@ -784,7 +784,7 @@
         <v>9</v>
       </c>
       <c r="C41" t="str">
-        <v>671_大丽花 黄_undefined_undefined_5stems</v>
+        <v>675_大丽花 黄桃子_undefined_undefined_5stems</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-17.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-17.xlsx
@@ -786,6 +786,9 @@
       <c r="C41" t="str">
         <v>675_大丽花 黄桃子_undefined_undefined_5stems</v>
       </c>
+      <c r="F41" t="str">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -847,7 +850,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0515101040151210120154417338622501230201081316121215401038254052018822150</v>
+        <v>0515101040151210120154417338622501230201081316121215401038254052018822152</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-17.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-17.xlsx
@@ -787,7 +787,7 @@
         <v>675_大丽花 黄桃子_undefined_undefined_5stems</v>
       </c>
       <c r="F41" t="str">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -850,7 +850,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0515101040151210120154417338622501230201081316121215401038254052018822152</v>
+        <v>05151010401512101201544173386225012302010813161212154010382540520188221525</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-17.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-17.xlsx
@@ -852,6 +852,9 @@
       <c r="G2" t="str">
         <v>05151010401512101201544173386225012302010813161212154010382540520188221525</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
